--- a/biology/Zoologie/Cephalotes_persimilis/Cephalotes_persimilis.xlsx
+++ b/biology/Zoologie/Cephalotes_persimilis/Cephalotes_persimilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes persimilis est une espèce de fourmis arboricoles, de la sous-famille des Myrmicinae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes persimilis est une espèce de fourmis arboricoles, de la sous-famille des Myrmicinae,.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la moitié nord de l'Amérique du Sud[3].
-Découverte
-Elle fut découverte au Paraguay.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la moitié nord de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, C. persimilis se caractérise par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. 
-Elle fut décrite et classifiée par l'entomologiste brésilienne Maria Lourdes de Andrade (d) en 1999, qui lui donna son nom actuel.
+          <t>Découverte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fut découverte au Paraguay.
 </t>
         </is>
       </c>
@@ -573,13 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cephalotes : « de la tête », « avec une tête développée »[5]
-Le terme persimilis fait référence à sa similarité avec l'espèce C. grandinosus[6].</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, C. persimilis se caractérise par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. 
+Elle fut décrite et classifiée par l'entomologiste brésilienne Maria Lourdes de Andrade (d) en 1999, qui lui donna son nom actuel.
+</t>
         </is>
       </c>
     </row>
@@ -604,10 +624,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cephalotes : « de la tête », « avec une tête développée »
+Le terme persimilis fait référence à sa similarité avec l'espèce C. grandinosus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cephalotes_persimilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalotes_persimilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria L. de Andrade &amp; Cesare Baroni Urbani Basel, « Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae) », Staatliches Museum für Naturkunde, 1999, 899 pages (Lire en ligne).
 			Tête
